--- a/biology/Écologie/Bois_de_pins_et_chênes_de_Madrean/Bois_de_pins_et_chênes_de_Madrean.xlsx
+++ b/biology/Écologie/Bois_de_pins_et_chênes_de_Madrean/Bois_de_pins_et_chênes_de_Madrean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_de_pins_et_ch%C3%AAnes_de_Madrean</t>
+          <t>Bois_de_pins_et_chênes_de_Madrean</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bois de pins et chênes de la Sierra Madre occidentale forment un ensemble de forêts subtropicales situées au Mexique considéré comme un point chaud de biodiversité par Conservation International.
  Portail de l’écologie   Portail de la botanique   Portail de l’Amérique                   </t>
